--- a/doc_programing/DB_プログラミング資料.xlsx
+++ b/doc_programing/DB_プログラミング資料.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sus\study\Java\git\Java\doc_programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89325C-801A-48BF-9F02-EBEE8BD5F3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD9735D-8FA7-49A2-B9ED-391182CD60FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" tabRatio="832" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="3" r:id="rId1"/>
     <sheet name="画面" sheetId="5" r:id="rId2"/>
     <sheet name="DBテーブル" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="MySQL導入" sheetId="8" r:id="rId4"/>
+    <sheet name="Webアプリケーション導入資料" sheetId="6" r:id="rId5"/>
+    <sheet name="JavaサーブレットからのDBアクセス資料" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
@@ -66,10 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -251,25 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カレンダーより日付を選択し、ログインユーザ別の購入履歴が参照できる</t>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>コウニュウリレキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインユーザ追加</t>
     <rPh sb="7" eb="9">
       <t>ツイカ</t>
@@ -431,6 +411,384 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記サイトを参照</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/RyoyaHase/items/ba13d78aefe821600357</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・既にFULLのeclipseを導入している場合は、「3．パースペクティブの設定」から先の内容を参照</t>
+    <rPh sb="1" eb="2">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトを見れない方はこちら 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記サイトが確認できない方は下記画像を参照</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトを見れない方はこちら 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBにアクセスするにはMySQLなどのDB作成用のツールの導入が必要</t>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本プログラミングは、MySQLを利用し、DBへのアクセスを行うものとする</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記サイトを参考にMySQLのインストールを行う</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://online.dhw.co.jp/kuritama/about-mysql/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLのインストール先のサイトは下記</t>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/installer/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaサーブレットからのDBアクセス方法は、下記サイトを参照</t>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/mysql/8.0.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64bit：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32bit：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付を入力し、ログインユーザ別の購入履歴が参照できる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eclipse Tomcatを利用する場合、JDBCライブラリをTomcat内のlibにも導入しておく方がよい</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※実際はエクスポートからwarファイルを作成し、warファイル中にJDBCライブラリも含まれるようになるので、使用上問題ないが、</t>
+    <rPh sb="1" eb="3">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>シヨウジョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Tomcatを利用する場合、動作環境になっているところにJDBCライブラリの要素がないと動かないケース（classファイルのみの動作を行うケース）がある</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOTNULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルを動作させた際にクラスが見つからないといったエラーが出力される場合は、</t>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトのビルドができていないだけだと考えるので、サーブレットクラスが含まれたプロジェクトのビルドを実行すること。</t>
+    <rPh sb="37" eb="38">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→eclipseで自動ビルドを切っている場合に起こりやすい</t>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意事項</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.javadrive.jp/servlet/database/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JDBCドライバのロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースへの接続と切断</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの用意</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース接続テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの取得(SELECT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの更新(UPDATE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの追加(INSERT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの削除(DELETE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ DriverManagerを利用できるように「Class.forName("com.mysql.jdbc.Driver").newInstance();」とされているが、「Class.forName("com.mysql.jdbc.Driver");」でよい</t>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prepareStatementの使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「JDBCドライバの取得(MySQL用)」については、MySQL導入が完了していれば、注意事項を参照</t>
+    <rPh sb="33" eb="35">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意事項</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（JDBCライブラリについて、MySQL導入時にインストールした「Connector J」に「mysql-connector-java-XX.XX.XX.jar（XXはバージョン）」をJavaサーブレットで使用するTomcatのlibにコピーしておく）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -438,7 +796,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +826,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -500,10 +866,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -542,8 +909,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,14 +1204,14 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -845,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -853,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -861,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -869,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +1258,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
@@ -897,106 +1271,106 @@
   <sheetData>
     <row r="2" spans="2:4" s="13" customFormat="1">
       <c r="B2" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4">
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -1013,209 +1387,249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABDDF77-5C83-45BB-8B63-714C33EF3724}">
-  <dimension ref="A2:E20"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="2.58203125" style="1"/>
+    <col min="1" max="1" width="2.58203125" style="1"/>
+    <col min="2" max="2" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="2:7">
       <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="10"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1225,11 +1639,288 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03B679-5B1E-4FF6-8C44-9D75549C7940}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="C9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{8E8B73D1-F67D-45A7-8270-3C82C6D74C22}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{FA7003C2-242E-4A7B-BA03-1B23FEC189F3}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{5AAF19D2-C0A6-40A9-94DB-432D65457524}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{6B10C9FA-6A00-495A-B509-C92E36224941}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88C5F7B-900C-4A13-A353-8E1560E5728D}">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E0FA4956-A9D9-4899-B932-FCE9961DC10F}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{9970A12D-3076-44CB-8FDB-6AF462B65EB6}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{04A7DEB4-4A4D-4C1F-9FE3-6F33C68C22BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6150C405-34D4-4D31-BB21-2AEFDC585DAF}">
+  <dimension ref="B2:O21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="C3" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="C8" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="C9" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="C10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="C11" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="C13" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="C14" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="C15" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="サイトを見れない方はこちら 1" xr:uid="{CDE0D4F5-CE47-4E97-B768-DFE38960F18A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3F53EF93-93D6-4E0D-8C00-D05E8088411E}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{D9C18399-64D8-4E9B-9BF9-589B53004C37}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{AD1E9516-C05F-4077-B51C-4CE9C88AC0E6}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{7EEF4D4D-55F9-4DD1-AC2C-E2FB19AD6A6E}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{6A15C551-AA5E-4B30-9204-C8D164FCEDD3}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{AAD99F9D-2F93-4371-89F7-ECA3B5B3716F}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{E9037494-225F-4E48-9FA8-107EF995D84C}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{FD8BD820-56C4-433B-91E9-AF6036613B32}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{2070F1C5-A153-4F8F-8CEF-15B9F6FFD8C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>

--- a/doc_programing/DB_プログラミング資料.xlsx
+++ b/doc_programing/DB_プログラミング資料.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sus\study\Java\git\Java\doc_programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD9735D-8FA7-49A2-B9ED-391182CD60FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC354D05-BE3C-4407-8547-F643E450B7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" tabRatio="832" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" tabRatio="968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="機能一覧" sheetId="3" r:id="rId1"/>
-    <sheet name="画面" sheetId="5" r:id="rId2"/>
-    <sheet name="DBテーブル" sheetId="2" r:id="rId3"/>
-    <sheet name="MySQL導入" sheetId="8" r:id="rId4"/>
-    <sheet name="Webアプリケーション導入資料" sheetId="6" r:id="rId5"/>
-    <sheet name="JavaサーブレットからのDBアクセス資料" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="MySQL導入" sheetId="8" r:id="rId1"/>
+    <sheet name="Spring Bootプロジェクト作成" sheetId="9" r:id="rId2"/>
+    <sheet name="Spring Boot参考サイト" sheetId="10" r:id="rId3"/>
+    <sheet name="機能一覧" sheetId="3" r:id="rId4"/>
+    <sheet name="DBテーブル" sheetId="2" r:id="rId5"/>
+    <sheet name="画面" sheetId="5" r:id="rId6"/>
+    <sheet name="右は確認しなくてもよいがSpring Bootとの比較用" sheetId="11" r:id="rId7"/>
+    <sheet name="Webアプリケーション導入資料" sheetId="6" r:id="rId8"/>
+    <sheet name="JavaサーブレットからのDBアクセス資料" sheetId="7" r:id="rId9"/>
+    <sheet name="Template" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
   <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
@@ -789,6 +792,591 @@
   </si>
   <si>
     <t>（JDBCライブラリについて、MySQL導入時にインストールした「Connector J」に「mysql-connector-java-XX.XX.XX.jar（XXはバージョン）」をJavaサーブレットで使用するTomcatのlibにコピーしておく）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入方法</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java勉強会へ参加時に導入したEclipseには既に含められている。</t>
+    <rPh sb="4" eb="7">
+      <t>ベンキョウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サンカジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規(N)</t>
+  </si>
+  <si>
+    <t>その他(O)...</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring Bootの「Springスターター・プロジェクト」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaバージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.新規Springスターター・プロジェクトダイアログ上で下記内容を任意で設定し、「次へ(N)」を押下</t>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「使用可能：検索する依存関係を入力」で下記名称を「MySQL」や「Spring」と入力すると選択しやすい</t>
+    <rPh sb="1" eb="5">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・MySQL Driver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spring Boot DevTools</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spring Data JDBC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spring Web</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Thymeleaf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→MySQLのドライバーライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→Spring Bootのアクティビティ自動化ライブラリ</t>
+    <rPh sb="20" eb="23">
+      <t>ジドウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→SQL用ライブラリ</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→JavaテンプレートエンジンでMVCモデルでいう「V（ビュー）」にあたる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→Spring Frameworkを利用するためのライブラリ</t>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.新規Springスターター・プロジェクト依存関係ダイアログ上で下記を選択し、「完了(F)」を押下</t>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring.datasource.driver-class-name=com.mysql.cj.jdbc.Driver</t>
+  </si>
+  <si>
+    <t>spring.datasource.initialization-mode=always</t>
+  </si>
+  <si>
+    <t>spring.datasource.sql-script-encoding=utf-8</t>
+  </si>
+  <si>
+    <t>spring.datasource.url=jdbc:mysql://localhost:[ポート番号]/[DB名]</t>
+    <rPh sb="49" eb="51">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring.datasource.username=[DBへアクセスするためのユーザ名]</t>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring.datasource.password=[DBへアクセスするためのパスワード]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.「src/main/resources」に「application.properties」を開き下記を入力しておく([]は使用者によって変わるので、各々の内容を指定すること)</t>
+    <rPh sb="48" eb="49">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>オノオノ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring Bootプロジェクト（WebアプリケーションおよびDBアクセス可能）の作成方法</t>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.DBへアクセスし、DB内の情報をブラウザ上に表示するプログラムを作成する</t>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他(O)...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター入力で「HTML」と入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター入力で「Spring」と入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.Eclipse上の左上の「ファイル(F)」を押下し、下記の順で指定または押下していく</t>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「src/main/resources/templates」上で、右クリックし、下記の順で指定または押下していく</t>
+    <rPh sb="30" eb="31">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名に「index.html」と入力し、「完了(F)」を押下</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規(W)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「src/main/java」上で、右クリックし、下記の順で指定または押下していく</t>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規Javaクラスダイアログ上で任意の名前を記載（コントローラーを作成するため、○○Controllerが望ましい）</t>
+    <rPh sb="14" eb="15">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>※ここの例ではクラス名を「DbController」とし、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のパッケージはプロジェクト作成時の内容とする</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Controllerのサンプルコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■アクセスするDBのテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■テーブルの登録情報</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行(R)</t>
+  </si>
+  <si>
+    <t>Spring Bootアプリケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.Spring Bootプロジェクト上で、右クリックし、下記の順で押下していく</t>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.Eclipseのコンソール上にSpring Bootのログが出力されつくした後、ブラウザ上のURLに下記を入力する</t>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.下記の画面が表示されるとControllerクラスを経由してDBアクセスし、ブラウザ上にDBのテーブルの情報が表示されている。</t>
+    <rPh sb="2" eb="4">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.codeflow.site/ja/article/spring-boot-devtools</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spring Data JDBC、MySQL Driver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://zenn.dev/waka_morita/articles/ed441b3e5b0b76</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dev.classmethod.jp/articles/use_spring-boot_jdbctemplate/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://insource-mkd.co.jp/staff-blog/17070.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spring Bootを利用したMVCの実装</t>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/t-shin0hara/items/687085ec34ae78ca2260</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/hatopo/items/e8e8e8e517601cef65c8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -796,7 +1384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +1424,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -870,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -915,6 +1511,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -936,6 +1535,1320 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7219950" cy="10687050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C25D6A-5F6C-4062-BE2B-069202EFC912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="9937750"/>
+          <a:ext cx="7219950" cy="10687050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCECFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>package com.example.db;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import java.io.PrintWriter;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import java.util.List;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import java.util.Map;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import javax.servlet.http.HttpServletResponse;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.springframework.beans.factory.annotation.Autowired;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.springframework.jdbc.core.JdbcTemplate;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.springframework.stereotype.Controller;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.springframework.web.bind.annotation.RequestMapping;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.springframework.web.bind.annotation.RequestMethod;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Controller</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public class DbController {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    @Autowired</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    JdbcTemplate jdbc;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    @RequestMapping(path = "/", method = RequestMethod.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GET)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public void index(HttpServletResponse response) throws Exception {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        List&lt;Map&lt;String, Object&gt;&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文実行時の結果取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        list = jdbc.queryForList("select * from test.userInfo");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>への書き込み内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        String </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>msg = "";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        PrintWriter </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>out = response.getWriter();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル情報（列名）を表示する</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if(0 &lt; list.size())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            msg += "&lt;pre&gt;";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for(String key : list.get(0).keySet())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                msg += key;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                msg += "&amp;#9";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            msg += "&lt;/pre&gt;";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル情報（列値）を表示する</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for(Map&lt;String, Object&gt; record : list)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            msg += "&lt;pre&gt;";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for(Object value : record.values())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                msg += value.toString();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                msg += "&amp;#9";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            msg += "&lt;/pre&gt;";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        out.println(msg);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C541C589-C337-45A2-B075-7C803C57BD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8261350" y="9690100"/>
+          <a:ext cx="9601200" cy="5822950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EB08A6-7355-498E-848F-1490A2009AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8451850" y="16109950"/>
+          <a:ext cx="9594850" cy="2654300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>75305</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>228171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AA6D8E-01C7-403E-88A4-B3DDC9900030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="22174200"/>
+          <a:ext cx="7161905" cy="3428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,6 +3113,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03B679-5B1E-4FF6-8C44-9D75549C7940}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="C9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{8E8B73D1-F67D-45A7-8270-3C82C6D74C22}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{FA7003C2-242E-4A7B-BA03-1B23FEC189F3}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{5AAF19D2-C0A6-40A9-94DB-432D65457524}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{6B10C9FA-6A00-495A-B509-C92E36224941}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368BCB8-A740-4C69-B56E-3498D3D25CCC}">
+  <dimension ref="B2:AQ99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="D15" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="D18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="D25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="D27" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="D29" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="4:43">
+      <c r="E33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="4:43">
+      <c r="E34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="4:43">
+      <c r="E35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="4:43">
+      <c r="E36" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="4:43">
+      <c r="D37" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="4:43">
+      <c r="D38" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="4:43">
+      <c r="E39" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="4:43">
+      <c r="E40" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="4:43">
+      <c r="D41" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="4:43">
+      <c r="D42" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="4:43">
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="43:43">
+      <c r="AQ70" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="D93" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="D94" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="D97" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D97" r:id="rId1" xr:uid="{A33C9D59-FC84-4A06-BA92-BC0281E8FF75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9081057B-D501-4A35-A76D-A0951EB618B1}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{177BA9B8-E65A-40BB-83BB-0E3170833E97}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{901CC77D-51B0-46BE-9DF3-DB6750EC88EF}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{579EA913-74C0-4ECE-B07B-5EF5B74931E8}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{4245768E-913F-4860-B092-3F513ACBFA4D}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{2E851A06-16EB-4990-A404-F3E720301C9D}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{791CF56D-52D6-4262-B830-E7B68D475083}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9369A169-3A3D-4811-958F-BE59A8D6CEB3}">
   <dimension ref="B2:C6"/>
   <sheetViews>
@@ -1253,139 +3620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7623550-7422-405E-8FE8-F464F26E4394}">
-  <dimension ref="B2:D20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.58203125" style="1"/>
-    <col min="2" max="2" width="18.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="2.58203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" s="13" customFormat="1">
-      <c r="B2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABDDF77-5C83-45BB-8B63-714C33EF3724}">
   <dimension ref="B2:G20"/>
   <sheetViews>
@@ -1638,89 +3873,165 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03B679-5B1E-4FF6-8C44-9D75549C7940}">
-  <dimension ref="B2:F13"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7623550-7422-405E-8FE8-F464F26E4394}">
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.58203125" style="1"/>
+    <col min="2" max="2" width="18.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="2.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" s="13" customFormat="1">
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D779F3-3BC1-472E-8392-C7EAA78A3DC9}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="2.58203125" style="2"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="C6" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{8E8B73D1-F67D-45A7-8270-3C82C6D74C22}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{FA7003C2-242E-4A7B-BA03-1B23FEC189F3}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{5AAF19D2-C0A6-40A9-94DB-432D65457524}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{6B10C9FA-6A00-495A-B509-C92E36224941}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88C5F7B-900C-4A13-A353-8E1560E5728D}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
@@ -1790,12 +4101,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6150C405-34D4-4D31-BB21-2AEFDC585DAF}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
@@ -1913,23 +4227,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="16384" width="2.58203125" style="2"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc_programing/DB_プログラミング資料.xlsx
+++ b/doc_programing/DB_プログラミング資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sus\study\Java\git\Java\doc_programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC354D05-BE3C-4407-8547-F643E450B7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EA04A8-5A3A-402A-ACEC-AE5666179D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" tabRatio="968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" tabRatio="968" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL導入" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
   <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
@@ -1377,6 +1377,10 @@
   </si>
   <si>
     <t>https://qiita.com/hatopo/items/e8e8e8e517601cef65c8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://penguinlabo.hatenablog.com/entry/springboot/web/3_implementsview</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3116,7 +3120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03B679-5B1E-4FF6-8C44-9D75549C7940}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
   <cols>
@@ -3208,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368BCB8-A740-4C69-B56E-3498D3D25CCC}">
-  <dimension ref="B2:AQ99"/>
+  <dimension ref="B2:AQ117"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
@@ -3477,14 +3483,20 @@
         <v>135</v>
       </c>
     </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D97" r:id="rId1" xr:uid="{A33C9D59-FC84-4A06-BA92-BC0281E8FF75}"/>
+    <hyperlink ref="C117" r:id="rId2" xr:uid="{CB5E8D49-D1C2-4A7E-A45F-1E897E7182CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="123" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3492,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9081057B-D501-4A35-A76D-A0951EB618B1}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
@@ -3625,7 +3637,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
